--- a/QnC_V3.xlsx
+++ b/QnC_V3.xlsx
@@ -1,35 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjokro/PycharmProjects/Tjokro/interactive-diary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marinaazaredo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B7C98D-FFBD-2F46-82A5-3F029A7F7B7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="question" sheetId="1" r:id="rId1"/>
     <sheet name="Test_data" sheetId="2" r:id="rId2"/>
-    <sheet name="daily challenges" sheetId="3" r:id="rId3"/>
-    <sheet name="question(Past, Present, Future)" sheetId="4" r:id="rId4"/>
-    <sheet name="fake user data" sheetId="5" r:id="rId5"/>
-    <sheet name="fake user data 4" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="daily challenges" sheetId="3" r:id="rId4"/>
+    <sheet name="question(Past, Present, Future)" sheetId="4" r:id="rId5"/>
+    <sheet name="fake user data" sheetId="5" r:id="rId6"/>
+    <sheet name="fake user data 4" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_3002C924_96BC_45B7_9964_1D4D2E620286_.wvu.FilterData" localSheetId="3" hidden="1">'question(Past, Present, Future)'!$B$1:$B$999</definedName>
-    <definedName name="Z_E769E31E_3B2C_4256_ACA6_D25508AE1DE9_.wvu.FilterData" localSheetId="3" hidden="1">'question(Past, Present, Future)'!$A$1:$F$102</definedName>
+    <definedName name="Z_3002C924_96BC_45B7_9964_1D4D2E620286_.wvu.FilterData" localSheetId="4" hidden="1">'question(Past, Present, Future)'!$B$1:$B$999</definedName>
+    <definedName name="Z_E769E31E_3B2C_4256_ACA6_D25508AE1DE9_.wvu.FilterData" localSheetId="4" hidden="1">'question(Past, Present, Future)'!$A$1:$F$102</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{E769E31E-3B2C-4256-ACA6-D25508AE1DE9}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{3002C924-96BC-45B7-9964-1D4D2E620286}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{E769E31E-3B2C-4256-ACA6-D25508AE1DE9}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -358,9 +364,6 @@
     <t>Great</t>
   </si>
   <si>
-    <t>Physical Health</t>
-  </si>
-  <si>
     <t>Feelings</t>
   </si>
   <si>
@@ -373,12 +376,6 @@
     <t>Self_Motivation</t>
   </si>
   <si>
-    <t>Personal Growth</t>
-  </si>
-  <si>
-    <t>Open topic</t>
-  </si>
-  <si>
     <t>Mood</t>
   </si>
   <si>
@@ -1175,12 +1172,21 @@
   </si>
   <si>
     <t>Target_Cat</t>
+  </si>
+  <si>
+    <t>Physical_Health</t>
+  </si>
+  <si>
+    <t>Personal_Growth</t>
+  </si>
+  <si>
+    <t>Open_topic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1245,6 +1251,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1497,18 +1504,18 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="3">
-    <tableStyle name="question-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+  <tableStyles count="3" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="question-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Test_data-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Test_data-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="question(Past, Present, Future)-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+    <tableStyle name="question(Past, Present, Future)-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -1526,17 +1533,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:I102" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:I102" headerRowCount="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
   </tableColumns>
   <tableStyleInfo name="question-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1548,24 +1555,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A1:P101" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_2" displayName="Table_2" ref="A1:P101" headerRowCount="0">
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Column9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Column10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Column11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Column12"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Column13"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Column14"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Column15"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Column16"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="11" name="Column11"/>
+    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="13" name="Column13"/>
+    <tableColumn id="14" name="Column14"/>
+    <tableColumn id="15" name="Column15"/>
+    <tableColumn id="16" name="Column16"/>
   </tableColumns>
   <tableStyleInfo name="Test_data-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1577,17 +1584,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:I102" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_3" displayName="Table_3" ref="A1:I102" headerRowCount="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Column5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Column6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Column7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Column8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Column9"/>
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
   </tableColumns>
   <tableStyleInfo name="question(Past, Present, Future)-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1795,8 +1802,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K102"/>
@@ -3416,15 +3423,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:S998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="73" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3468,31 +3475,31 @@
         <v>103</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="M1" s="7" t="s">
-        <v>109</v>
+        <v>375</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>110</v>
+        <v>376</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3538,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3636,7 +3643,7 @@
         <v>3</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3737,7 +3744,7 @@
         <v>5</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="S6" s="19"/>
     </row>
@@ -3827,7 +3834,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="20"/>
       <c r="R8" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S8" s="19"/>
     </row>
@@ -3873,7 +3880,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="R9" s="5" t="s">
         <v>4</v>
@@ -3922,7 +3929,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>5</v>
@@ -3934,7 +3941,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" s="15">
         <v>1</v>
@@ -3969,7 +3976,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>6</v>
@@ -4018,10 +4025,10 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S12" s="19"/>
     </row>
@@ -4067,10 +4074,10 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="S13" s="19"/>
     </row>
@@ -4114,10 +4121,10 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S14" s="19"/>
     </row>
@@ -4163,10 +4170,10 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="S15" s="19"/>
     </row>
@@ -4212,10 +4219,10 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4258,10 +4265,10 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4308,10 +4315,10 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S18" s="19"/>
     </row>
@@ -4357,10 +4364,10 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5907,7 +5914,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C55" s="15">
         <v>1</v>
@@ -19187,8 +19194,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z101"/>
@@ -19205,22 +19224,22 @@
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
@@ -19247,7 +19266,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19255,7 +19274,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19263,7 +19282,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19271,7 +19290,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19279,7 +19298,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19287,7 +19306,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19295,7 +19314,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19303,7 +19322,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19311,7 +19330,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19319,7 +19338,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19327,7 +19346,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19335,7 +19354,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19343,7 +19362,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19351,7 +19370,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19359,7 +19378,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19367,7 +19386,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19375,7 +19394,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19383,7 +19402,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19391,7 +19410,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19399,7 +19418,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19407,7 +19426,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19415,7 +19434,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19423,7 +19442,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19431,7 +19450,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19439,7 +19458,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19447,7 +19466,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19455,7 +19474,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19463,7 +19482,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19471,7 +19490,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19479,7 +19498,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19487,7 +19506,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19495,7 +19514,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19503,7 +19522,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19511,7 +19530,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19519,7 +19538,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19527,7 +19546,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19535,7 +19554,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19543,7 +19562,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19551,7 +19570,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19559,7 +19578,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19567,7 +19586,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19575,7 +19594,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19583,7 +19602,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19591,7 +19610,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19599,7 +19618,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19607,7 +19626,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19615,7 +19634,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19623,7 +19642,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19631,7 +19650,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19639,7 +19658,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19647,7 +19666,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19655,7 +19674,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19663,7 +19682,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19671,7 +19690,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19679,7 +19698,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19687,7 +19706,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19695,7 +19714,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19703,7 +19722,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19711,7 +19730,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19719,7 +19738,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19727,7 +19746,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19735,7 +19754,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19743,7 +19762,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19751,7 +19770,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19759,7 +19778,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19767,7 +19786,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19775,7 +19794,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19783,7 +19802,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19791,7 +19810,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19799,7 +19818,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19807,7 +19826,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19815,7 +19834,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19823,7 +19842,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19831,7 +19850,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19839,7 +19858,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19847,7 +19866,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19855,7 +19874,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19863,7 +19882,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19871,7 +19890,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19879,7 +19898,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19887,7 +19906,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19895,7 +19914,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19903,7 +19922,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19911,7 +19930,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19919,7 +19938,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19927,7 +19946,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19935,7 +19954,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19943,7 +19962,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19951,7 +19970,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19959,7 +19978,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19967,7 +19986,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19975,7 +19994,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19983,7 +20002,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19991,7 +20010,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -19999,7 +20018,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -20007,7 +20026,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -20015,7 +20034,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -20023,7 +20042,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -20031,7 +20050,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="13" x14ac:dyDescent="0.15">
@@ -20039,7 +20058,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -20047,9 +20066,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K102"/>
@@ -20075,13 +20094,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="1"/>
@@ -20095,19 +20114,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -20125,7 +20144,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -20146,7 +20165,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -20167,7 +20186,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -20188,7 +20207,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
@@ -20209,7 +20228,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -20230,7 +20249,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -20251,7 +20270,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -20272,7 +20291,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -20293,7 +20312,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -20314,7 +20333,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G12" s="2">
         <v>2</v>
@@ -20335,7 +20354,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
@@ -20356,7 +20375,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -20377,7 +20396,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -20398,7 +20417,7 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G16" s="2">
         <v>2</v>
@@ -20419,7 +20438,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G17" s="2">
         <v>3</v>
@@ -20440,7 +20459,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -20461,7 +20480,7 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G19" s="2">
         <v>2</v>
@@ -20482,7 +20501,7 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G20" s="2">
         <v>2</v>
@@ -20503,7 +20522,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -20524,7 +20543,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G22" s="2">
         <v>3</v>
@@ -20545,7 +20564,7 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G23" s="2">
         <v>2</v>
@@ -20566,7 +20585,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -20587,7 +20606,7 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G25" s="2">
         <v>2</v>
@@ -20608,7 +20627,7 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G26" s="2">
         <v>2</v>
@@ -20629,7 +20648,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G27" s="2">
         <v>2</v>
@@ -20650,7 +20669,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G28" s="2">
         <v>3</v>
@@ -20671,7 +20690,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G29" s="2">
         <v>3</v>
@@ -20692,7 +20711,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G30" s="2">
         <v>3</v>
@@ -20713,7 +20732,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G31" s="2">
         <v>3</v>
@@ -20734,7 +20753,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -20755,7 +20774,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G33" s="2">
         <v>3</v>
@@ -20776,7 +20795,7 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
@@ -20797,7 +20816,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -20818,7 +20837,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -20839,7 +20858,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G37" s="2">
         <v>3</v>
@@ -20860,7 +20879,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -20881,7 +20900,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -20902,7 +20921,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -20923,7 +20942,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G41" s="2">
         <v>3</v>
@@ -20944,7 +20963,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G42" s="2">
         <v>3</v>
@@ -20965,7 +20984,7 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G43" s="2">
         <v>2</v>
@@ -20986,7 +21005,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -21007,7 +21026,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G45" s="2">
         <v>3</v>
@@ -21028,7 +21047,7 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G46" s="2">
         <v>2</v>
@@ -21049,7 +21068,7 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G47" s="2">
         <v>2</v>
@@ -21070,7 +21089,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G48" s="2">
         <v>1</v>
@@ -21091,7 +21110,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G49" s="2">
         <v>3</v>
@@ -21112,7 +21131,7 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G50" s="2">
         <v>2</v>
@@ -21133,7 +21152,7 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G51" s="2">
         <v>2</v>
@@ -21154,7 +21173,7 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G52" s="2">
         <v>2</v>
@@ -21175,7 +21194,7 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G53" s="2">
         <v>2</v>
@@ -21196,7 +21215,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -21217,7 +21236,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G55" s="2">
         <v>3</v>
@@ -21238,7 +21257,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -21259,7 +21278,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G57" s="2">
         <v>1</v>
@@ -21280,7 +21299,7 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G58" s="2">
         <v>2</v>
@@ -21301,7 +21320,7 @@
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G59" s="2">
         <v>2</v>
@@ -21322,7 +21341,7 @@
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G60" s="2">
         <v>2</v>
@@ -21343,7 +21362,7 @@
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G61" s="2">
         <v>2</v>
@@ -21364,7 +21383,7 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G62" s="2">
         <v>2</v>
@@ -21385,7 +21404,7 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G63" s="2">
         <v>2</v>
@@ -21406,7 +21425,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -21427,7 +21446,7 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G65" s="2">
         <v>2</v>
@@ -21448,7 +21467,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G66" s="2">
         <v>3</v>
@@ -21469,7 +21488,7 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -21490,7 +21509,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G68" s="2">
         <v>3</v>
@@ -21511,7 +21530,7 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G69" s="2">
         <v>2</v>
@@ -21532,7 +21551,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G70" s="2">
         <v>3</v>
@@ -21553,7 +21572,7 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G71" s="2">
         <v>2</v>
@@ -21574,7 +21593,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -21595,7 +21614,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G73" s="2">
         <v>3</v>
@@ -21616,7 +21635,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -21637,7 +21656,7 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G75" s="2">
         <v>1</v>
@@ -21658,7 +21677,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G76" s="2">
         <v>3</v>
@@ -21679,7 +21698,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G77" s="2">
         <v>3</v>
@@ -21700,7 +21719,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G78" s="2">
         <v>3</v>
@@ -21721,7 +21740,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G79" s="2">
         <v>3</v>
@@ -21742,7 +21761,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G80" s="2">
         <v>3</v>
@@ -21763,7 +21782,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G81" s="2">
         <v>3</v>
@@ -21784,7 +21803,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G82" s="2">
         <v>3</v>
@@ -21805,7 +21824,7 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G83" s="2">
         <v>1</v>
@@ -21826,7 +21845,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G84" s="2">
         <v>3</v>
@@ -21847,7 +21866,7 @@
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G85" s="2">
         <v>2</v>
@@ -21868,7 +21887,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G86" s="2">
         <v>3</v>
@@ -21889,7 +21908,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G87" s="2">
         <v>3</v>
@@ -22103,13 +22122,13 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{3002C924-96BC-45B7-9964-1D4D2E620286}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="B1:B999"/>
+    </customSheetView>
     <customSheetView guid="{E769E31E-3B2C-4256-ACA6-D25508AE1DE9}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:F102" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
-    </customSheetView>
-    <customSheetView guid="{3002C924-96BC-45B7-9964-1D4D2E620286}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B1:B999" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+      <autoFilter ref="A1:F102"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22119,9 +22138,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z101"/>
@@ -22136,87 +22155,87 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="F1" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="G1" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="I1" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="J1" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="K1" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="L1" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="M1" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="N1" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="O1" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="P1" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="Q1" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="R1" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="S1" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="T1" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="U1" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="V1" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="W1" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="X1" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="Y1" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="Z1" s="38" t="s">
         <v>272</v>
-      </c>
-      <c r="X1" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y1" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z1" s="38" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B2" s="39">
         <v>3</v>
@@ -22296,7 +22315,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B3" s="39">
         <v>3</v>
@@ -22376,7 +22395,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B4" s="39">
         <v>3</v>
@@ -22456,7 +22475,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B5" s="39">
         <v>3</v>
@@ -22536,7 +22555,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B6" s="39">
         <v>3</v>
@@ -22616,7 +22635,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B7" s="39">
         <v>1</v>
@@ -22696,7 +22715,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B8" s="39">
         <v>1</v>
@@ -22776,7 +22795,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B9" s="39">
         <v>3</v>
@@ -22856,7 +22875,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B10" s="39">
         <v>1</v>
@@ -22936,7 +22955,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" s="39">
         <v>3</v>
@@ -23016,7 +23035,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B12" s="39">
         <v>3</v>
@@ -23096,7 +23115,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B13" s="39">
         <v>2</v>
@@ -23176,7 +23195,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B14" s="39">
         <v>3</v>
@@ -23256,7 +23275,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B15" s="39">
         <v>3</v>
@@ -23336,7 +23355,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B16" s="39">
         <v>3</v>
@@ -23416,7 +23435,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B17" s="39">
         <v>3</v>
@@ -23496,7 +23515,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B18" s="39">
         <v>3</v>
@@ -23576,7 +23595,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B19" s="39">
         <v>3</v>
@@ -23656,7 +23675,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B20" s="39">
         <v>3</v>
@@ -23736,7 +23755,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B21" s="39">
         <v>3</v>
@@ -23816,7 +23835,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B22" s="39">
         <v>3</v>
@@ -23896,7 +23915,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B23" s="39">
         <v>1</v>
@@ -23976,7 +23995,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B24" s="39">
         <v>1</v>
@@ -24056,7 +24075,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B25" s="39">
         <v>3</v>
@@ -24136,7 +24155,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="38" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B26" s="39">
         <v>1</v>
@@ -24216,7 +24235,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B27" s="39">
         <v>3</v>
@@ -24296,7 +24315,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B28" s="39">
         <v>3</v>
@@ -24376,7 +24395,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="38" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B29" s="39">
         <v>2</v>
@@ -24456,7 +24475,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B30" s="39">
         <v>3</v>
@@ -24536,7 +24555,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="38" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B31" s="39">
         <v>3</v>
@@ -24616,7 +24635,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B32" s="39">
         <v>3</v>
@@ -24696,7 +24715,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B33" s="39">
         <v>3</v>
@@ -24776,7 +24795,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="38" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B34" s="39">
         <v>2</v>
@@ -24856,7 +24875,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B35" s="39">
         <v>2</v>
@@ -24936,7 +24955,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B36" s="39">
         <v>3</v>
@@ -25016,7 +25035,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B37" s="39">
         <v>2</v>
@@ -25096,7 +25115,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="38" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B38" s="39">
         <v>1</v>
@@ -25176,7 +25195,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B39" s="39">
         <v>2</v>
@@ -25256,7 +25275,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B40" s="39">
         <v>1</v>
@@ -25336,7 +25355,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="38" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B41" s="39">
         <v>1</v>
@@ -25416,7 +25435,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B42" s="39">
         <v>1</v>
@@ -25496,7 +25515,7 @@
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B43" s="39">
         <v>3</v>
@@ -25576,7 +25595,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="38" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B44" s="39">
         <v>1</v>
@@ -25656,7 +25675,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B45" s="39">
         <v>1</v>
@@ -25736,7 +25755,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="38" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B46" s="39">
         <v>1</v>
@@ -25816,7 +25835,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B47" s="39">
         <v>3</v>
@@ -25896,7 +25915,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="38" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B48" s="39">
         <v>1</v>
@@ -25976,7 +25995,7 @@
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B49" s="39">
         <v>2</v>
@@ -26056,7 +26075,7 @@
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="38" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B50" s="39">
         <v>1</v>
@@ -26136,7 +26155,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="38" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B51" s="39">
         <v>2</v>
@@ -26216,7 +26235,7 @@
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B52" s="39">
         <v>3</v>
@@ -26296,7 +26315,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="38" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B53" s="39">
         <v>3</v>
@@ -26376,7 +26395,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="38" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B54" s="39">
         <v>3</v>
@@ -26456,7 +26475,7 @@
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="38" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B55" s="39">
         <v>3</v>
@@ -26536,7 +26555,7 @@
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="38" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B56" s="39">
         <v>2</v>
@@ -26616,7 +26635,7 @@
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B57" s="39">
         <v>3</v>
@@ -26696,7 +26715,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B58" s="39">
         <v>1</v>
@@ -26776,7 +26795,7 @@
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="38" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B59" s="39">
         <v>1</v>
@@ -26856,7 +26875,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="38" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B60" s="39">
         <v>1</v>
@@ -26936,7 +26955,7 @@
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="38" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B61" s="39">
         <v>3</v>
@@ -27016,7 +27035,7 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="38" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B62" s="39">
         <v>3</v>
@@ -27096,7 +27115,7 @@
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="38" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B63" s="39">
         <v>3</v>
@@ -27176,7 +27195,7 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B64" s="39">
         <v>3</v>
@@ -27256,7 +27275,7 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B65" s="39">
         <v>3</v>
@@ -27336,7 +27355,7 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="38" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B66" s="39">
         <v>3</v>
@@ -27416,7 +27435,7 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B67" s="39">
         <v>2</v>
@@ -27496,7 +27515,7 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="38" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B68" s="39">
         <v>1</v>
@@ -27576,7 +27595,7 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="38" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B69" s="39">
         <v>1</v>
@@ -27656,7 +27675,7 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="38" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B70" s="39">
         <v>1</v>
@@ -27736,7 +27755,7 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="38" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B71" s="39">
         <v>3</v>
@@ -27816,7 +27835,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="38" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B72" s="39">
         <v>1</v>
@@ -27896,7 +27915,7 @@
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="38" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B73" s="39">
         <v>1</v>
@@ -27976,7 +27995,7 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="38" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B74" s="39">
         <v>2</v>
@@ -28056,7 +28075,7 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="38" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B75" s="39">
         <v>1</v>
@@ -28136,7 +28155,7 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="38" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B76" s="39">
         <v>2</v>
@@ -28216,7 +28235,7 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="38" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B77" s="39">
         <v>2</v>
@@ -28296,7 +28315,7 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="38" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B78" s="39">
         <v>3</v>
@@ -28376,7 +28395,7 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B79" s="39">
         <v>3</v>
@@ -28456,7 +28475,7 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="38" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B80" s="39">
         <v>3</v>
@@ -28536,7 +28555,7 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B81" s="39">
         <v>1</v>
@@ -28616,7 +28635,7 @@
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="38" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B82" s="39">
         <v>2</v>
@@ -28696,7 +28715,7 @@
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="38" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B83" s="39">
         <v>3</v>
@@ -28776,7 +28795,7 @@
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="38" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B84" s="39">
         <v>3</v>
@@ -28856,7 +28875,7 @@
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="38" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B85" s="39">
         <v>3</v>
@@ -28936,7 +28955,7 @@
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="38" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B86" s="39">
         <v>3</v>
@@ -29016,7 +29035,7 @@
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="38" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B87" s="39">
         <v>3</v>
@@ -29096,7 +29115,7 @@
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="38" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B88" s="39">
         <v>1</v>
@@ -29176,7 +29195,7 @@
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="38" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B89" s="39">
         <v>3</v>
@@ -29256,7 +29275,7 @@
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B90" s="39">
         <v>1</v>
@@ -29336,7 +29355,7 @@
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="38" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B91" s="39">
         <v>3</v>
@@ -29416,7 +29435,7 @@
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="38" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B92" s="39">
         <v>1</v>
@@ -29496,7 +29515,7 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="38" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B93" s="39">
         <v>1</v>
@@ -29576,7 +29595,7 @@
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="38" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B94" s="39">
         <v>2</v>
@@ -29656,7 +29675,7 @@
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="38" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B95" s="39">
         <v>1</v>
@@ -29736,7 +29755,7 @@
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="38" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B96" s="39">
         <v>2</v>
@@ -29816,7 +29835,7 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="38" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B97" s="39">
         <v>3</v>
@@ -29896,7 +29915,7 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="38" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B98" s="39">
         <v>3</v>
@@ -29976,7 +29995,7 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="38" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B99" s="39">
         <v>3</v>
@@ -30056,7 +30075,7 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="38" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B100" s="39">
         <v>3</v>
@@ -30136,7 +30155,7 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="38" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B101" s="39">
         <v>2</v>
@@ -30219,37 +30238,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B2" s="39">
         <v>1000</v>
@@ -30261,12 +30280,12 @@
         <v>1200</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B3" s="39">
         <v>700</v>
@@ -30278,12 +30297,12 @@
         <v>1100</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B4" s="39">
         <v>900</v>
@@ -30295,12 +30314,12 @@
         <v>1000</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B5" s="39">
         <v>900</v>
@@ -30312,12 +30331,12 @@
         <v>600</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B6" s="39">
         <v>1300</v>
@@ -30329,12 +30348,12 @@
         <v>500</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B7" s="39">
         <v>1000</v>
@@ -30346,12 +30365,12 @@
         <v>700</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B8" s="39">
         <v>700</v>
@@ -30363,12 +30382,12 @@
         <v>1100</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B9" s="39">
         <v>900</v>
@@ -30380,12 +30399,12 @@
         <v>700</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B10" s="39">
         <v>1000</v>
@@ -30397,12 +30416,12 @@
         <v>700</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" s="39">
         <v>800</v>
@@ -30414,12 +30433,12 @@
         <v>1000</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B12" s="39">
         <v>800</v>
@@ -30431,12 +30450,12 @@
         <v>900</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B13" s="39">
         <v>500</v>
@@ -30448,12 +30467,12 @@
         <v>1000</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B14" s="39">
         <v>600</v>
@@ -30465,12 +30484,12 @@
         <v>1100</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B15" s="39">
         <v>800</v>
@@ -30482,12 +30501,12 @@
         <v>1000</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B16" s="39">
         <v>600</v>
@@ -30499,12 +30518,12 @@
         <v>1300</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B17" s="39">
         <v>900</v>
@@ -30516,12 +30535,12 @@
         <v>1000</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B18" s="39">
         <v>900</v>
@@ -30533,12 +30552,12 @@
         <v>1200</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B19" s="39">
         <v>500</v>
@@ -30550,12 +30569,12 @@
         <v>1200</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B20" s="39">
         <v>800</v>
@@ -30567,12 +30586,12 @@
         <v>1000</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B21" s="39">
         <v>900</v>
@@ -30584,12 +30603,12 @@
         <v>700</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B22" s="39">
         <v>1100</v>
@@ -30601,12 +30620,12 @@
         <v>800</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B23" s="39">
         <v>900</v>
@@ -30618,12 +30637,12 @@
         <v>900</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B24" s="39">
         <v>700</v>
@@ -30635,12 +30654,12 @@
         <v>900</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B25" s="39">
         <v>900</v>
@@ -30652,12 +30671,12 @@
         <v>900</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="38" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B26" s="39">
         <v>1200</v>
@@ -30669,12 +30688,12 @@
         <v>400</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B27" s="39">
         <v>900</v>
@@ -30686,12 +30705,12 @@
         <v>900</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B28" s="39">
         <v>700</v>
@@ -30703,12 +30722,12 @@
         <v>900</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="38" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B29" s="39">
         <v>700</v>
@@ -30720,12 +30739,12 @@
         <v>1100</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B30" s="39">
         <v>1100</v>
@@ -30737,12 +30756,12 @@
         <v>1000</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="38" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B31" s="39">
         <v>900</v>
@@ -30754,12 +30773,12 @@
         <v>900</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B32" s="39">
         <v>700</v>
@@ -30771,12 +30790,12 @@
         <v>1000</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B33" s="39">
         <v>800</v>
@@ -30788,12 +30807,12 @@
         <v>1200</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="38" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B34" s="39">
         <v>700</v>
@@ -30805,12 +30824,12 @@
         <v>700</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="38" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B35" s="39">
         <v>400</v>
@@ -30822,12 +30841,12 @@
         <v>1000</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="38" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B36" s="39">
         <v>600</v>
@@ -30839,12 +30858,12 @@
         <v>1000</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B37" s="39">
         <v>800</v>
@@ -30856,12 +30875,12 @@
         <v>900</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="38" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B38" s="39">
         <v>1000</v>
@@ -30873,12 +30892,12 @@
         <v>900</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B39" s="39">
         <v>500</v>
@@ -30890,12 +30909,12 @@
         <v>1500</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="38" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B40" s="39">
         <v>1200</v>
@@ -30907,12 +30926,12 @@
         <v>900</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="38" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B41" s="39">
         <v>1100</v>
@@ -30924,12 +30943,12 @@
         <v>1000</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B42" s="39">
         <v>700</v>
@@ -30941,12 +30960,12 @@
         <v>1300</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B43" s="39">
         <v>1300</v>
@@ -30958,12 +30977,12 @@
         <v>800</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="38" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B44" s="39">
         <v>900</v>
@@ -30975,12 +30994,12 @@
         <v>1000</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="38" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B45" s="39">
         <v>700</v>
@@ -30992,12 +31011,12 @@
         <v>800</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="38" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B46" s="39">
         <v>1000</v>
@@ -31009,12 +31028,12 @@
         <v>700</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B47" s="39">
         <v>1100</v>
@@ -31026,12 +31045,12 @@
         <v>800</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="38" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B48" s="39">
         <v>500</v>
@@ -31043,12 +31062,12 @@
         <v>900</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B49" s="39">
         <v>500</v>
@@ -31060,12 +31079,12 @@
         <v>800</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="38" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B50" s="39">
         <v>1000</v>
@@ -31077,12 +31096,12 @@
         <v>600</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="38" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B51" s="39">
         <v>600</v>
@@ -31094,12 +31113,12 @@
         <v>900</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B52" s="39">
         <v>900</v>
@@ -31111,12 +31130,12 @@
         <v>900</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="38" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B53" s="39">
         <v>500</v>
@@ -31128,12 +31147,12 @@
         <v>1500</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="38" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B54" s="39">
         <v>500</v>
@@ -31145,12 +31164,12 @@
         <v>1000</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="38" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B55" s="39">
         <v>600</v>
@@ -31162,12 +31181,12 @@
         <v>1200</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="38" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B56" s="39">
         <v>1200</v>
@@ -31179,12 +31198,12 @@
         <v>700</v>
       </c>
       <c r="E56" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B57" s="39">
         <v>700</v>
@@ -31196,12 +31215,12 @@
         <v>1200</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="38" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B58" s="39">
         <v>1400</v>
@@ -31213,12 +31232,12 @@
         <v>500</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="38" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B59" s="39">
         <v>1200</v>
@@ -31230,12 +31249,12 @@
         <v>900</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="38" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B60" s="39">
         <v>400</v>
@@ -31247,12 +31266,12 @@
         <v>1100</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="38" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B61" s="39">
         <v>1100</v>
@@ -31264,12 +31283,12 @@
         <v>900</v>
       </c>
       <c r="E61" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="38" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B62" s="39">
         <v>400</v>
@@ -31281,12 +31300,12 @@
         <v>1000</v>
       </c>
       <c r="E62" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="38" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B63" s="39">
         <v>400</v>
@@ -31298,12 +31317,12 @@
         <v>1200</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="38" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B64" s="39">
         <v>800</v>
@@ -31315,12 +31334,12 @@
         <v>700</v>
       </c>
       <c r="E64" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B65" s="39">
         <v>700</v>
@@ -31332,12 +31351,12 @@
         <v>1500</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="38" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B66" s="39">
         <v>700</v>
@@ -31349,12 +31368,12 @@
         <v>1000</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="38" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B67" s="39">
         <v>1000</v>
@@ -31366,12 +31385,12 @@
         <v>500</v>
       </c>
       <c r="E67" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="38" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B68" s="39">
         <v>900</v>
@@ -31383,12 +31402,12 @@
         <v>700</v>
       </c>
       <c r="E68" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="38" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B69" s="39">
         <v>1000</v>
@@ -31400,12 +31419,12 @@
         <v>400</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="38" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B70" s="39">
         <v>800</v>
@@ -31417,12 +31436,12 @@
         <v>800</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="38" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B71" s="39">
         <v>800</v>
@@ -31434,12 +31453,12 @@
         <v>1000</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="38" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B72" s="39">
         <v>600</v>
@@ -31451,12 +31470,12 @@
         <v>1000</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="38" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B73" s="39">
         <v>800</v>
@@ -31468,12 +31487,12 @@
         <v>1000</v>
       </c>
       <c r="E73" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="38" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B74" s="39">
         <v>500</v>
@@ -31485,12 +31504,12 @@
         <v>1200</v>
       </c>
       <c r="E74" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="38" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B75" s="39">
         <v>800</v>
@@ -31502,12 +31521,12 @@
         <v>1000</v>
       </c>
       <c r="E75" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="38" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B76" s="39">
         <v>700</v>
@@ -31519,12 +31538,12 @@
         <v>800</v>
       </c>
       <c r="E76" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="38" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B77" s="39">
         <v>800</v>
@@ -31536,12 +31555,12 @@
         <v>900</v>
       </c>
       <c r="E77" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="38" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B78" s="39">
         <v>1100</v>
@@ -31553,12 +31572,12 @@
         <v>1000</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B79" s="39">
         <v>900</v>
@@ -31570,12 +31589,12 @@
         <v>1100</v>
       </c>
       <c r="E79" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="38" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B80" s="39">
         <v>900</v>
@@ -31587,12 +31606,12 @@
         <v>1200</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="38" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B81" s="39">
         <v>600</v>
@@ -31604,12 +31623,12 @@
         <v>1100</v>
       </c>
       <c r="E81" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="38" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B82" s="39">
         <v>800</v>
@@ -31621,12 +31640,12 @@
         <v>800</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="38" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B83" s="39">
         <v>500</v>
@@ -31638,12 +31657,12 @@
         <v>1100</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="38" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B84" s="39">
         <v>900</v>
@@ -31655,12 +31674,12 @@
         <v>900</v>
       </c>
       <c r="E84" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="38" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B85" s="39">
         <v>1200</v>
@@ -31672,12 +31691,12 @@
         <v>700</v>
       </c>
       <c r="E85" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="38" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B86" s="39">
         <v>600</v>
@@ -31689,12 +31708,12 @@
         <v>1200</v>
       </c>
       <c r="E86" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="38" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B87" s="39">
         <v>1100</v>
@@ -31706,12 +31725,12 @@
         <v>1200</v>
       </c>
       <c r="E87" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="38" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B88" s="39">
         <v>900</v>
@@ -31723,12 +31742,12 @@
         <v>1000</v>
       </c>
       <c r="E88" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="38" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B89" s="39">
         <v>900</v>
@@ -31740,12 +31759,12 @@
         <v>1000</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B90" s="39">
         <v>1200</v>
@@ -31757,12 +31776,12 @@
         <v>500</v>
       </c>
       <c r="E90" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="38" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B91" s="39">
         <v>400</v>
@@ -31774,12 +31793,12 @@
         <v>1100</v>
       </c>
       <c r="E91" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="38" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B92" s="39">
         <v>1100</v>
@@ -31791,12 +31810,12 @@
         <v>600</v>
       </c>
       <c r="E92" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="38" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B93" s="39">
         <v>1100</v>
@@ -31808,12 +31827,12 @@
         <v>700</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="38" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B94" s="39">
         <v>400</v>
@@ -31825,12 +31844,12 @@
         <v>1100</v>
       </c>
       <c r="E94" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="38" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B95" s="39">
         <v>600</v>
@@ -31842,12 +31861,12 @@
         <v>1000</v>
       </c>
       <c r="E95" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="38" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B96" s="39">
         <v>800</v>
@@ -31859,12 +31878,12 @@
         <v>900</v>
       </c>
       <c r="E96" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="38" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B97" s="39">
         <v>600</v>
@@ -31876,12 +31895,12 @@
         <v>1100</v>
       </c>
       <c r="E97" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="38" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B98" s="39">
         <v>800</v>
@@ -31893,12 +31912,12 @@
         <v>1000</v>
       </c>
       <c r="E98" s="38" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="38" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B99" s="39">
         <v>900</v>
@@ -31910,12 +31929,12 @@
         <v>700</v>
       </c>
       <c r="E99" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="38" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B100" s="39">
         <v>800</v>
@@ -31927,12 +31946,12 @@
         <v>800</v>
       </c>
       <c r="E100" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="38" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B101" s="39">
         <v>800</v>
@@ -31944,7 +31963,7 @@
         <v>700</v>
       </c>
       <c r="E101" s="38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
